--- a/atendentes.xlsx
+++ b/atendentes.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE6196-115A-4480-A882-5F25C13E3B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="BD" sheetId="1" r:id="rId1"/>
+    <sheet name="paraFilter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nomeDoAtendente</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +354,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFFFFE7-1DAD-4B99-9AEA-BC3680BC5108}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/atendentes.xlsx
+++ b/atendentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE6196-115A-4480-A882-5F25C13E3B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2519F333-B49C-40B7-9E53-A6952828B94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,48 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franciela Coelho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Venzon Costa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maera Jahn de Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayara Morgana Lisik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Simões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Simões </t>
+  </si>
+  <si>
+    <t>(47) 3027-9700</t>
+  </si>
+  <si>
+    <t>(47) 3027-9700 / 9 9740 - 1239</t>
+  </si>
+  <si>
+    <t>(47) 3027-9700 / 9 9932-1082</t>
+  </si>
+  <si>
+    <t>(47) 3027-9700 / 47) 9 9740 - 1256</t>
+  </si>
+  <si>
+    <t>(47) 3027-9700 / 9 9709-5353</t>
+  </si>
+  <si>
+    <t>(48) 9 8821-1202</t>
+  </si>
+  <si>
+    <t>Flávia Gaedke www</t>
   </si>
 </sst>
 </file>
@@ -355,18 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -381,6 +425,94 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -390,6 +522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFFFFE7-1DAD-4B99-9AEA-BC3680BC5108}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/atendentes.xlsx
+++ b/atendentes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2519F333-B49C-40B7-9E53-A6952828B94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F28956-3F29-4AF7-8DDD-4DCEA9BC877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="BD" sheetId="1" r:id="rId1"/>
     <sheet name="paraFilter" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -401,7 +404,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,6 +519,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/atendentes.xlsx
+++ b/atendentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F28956-3F29-4AF7-8DDD-4DCEA9BC877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757507D5-1A27-4BD7-A0F6-78F0FF7B6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">Maera Jahn de Oliveira </t>
   </si>
   <si>
-    <t xml:space="preserve">Mayara Morgana Lisik </t>
-  </si>
-  <si>
     <t xml:space="preserve">Miguel Simões </t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Flávia Gaedke www</t>
+  </si>
+  <si>
+    <t>Mayara Morgana Lisik 2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,10 +446,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/atendentes.xlsx
+++ b/atendentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757507D5-1A27-4BD7-A0F6-78F0FF7B6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BDCCC-CD59-49D3-9519-B53554887875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -79,10 +79,13 @@
     <t>(48) 9 8821-1202</t>
   </si>
   <si>
-    <t>Flávia Gaedke www</t>
-  </si>
-  <si>
     <t>Mayara Morgana Lisik 2</t>
+  </si>
+  <si>
+    <t>Flávia Gaedke</t>
+  </si>
+  <si>
+    <t>flavia@luzeforma.com.br</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
